--- a/Results/Single Models/all_results_single_models.xlsx
+++ b/Results/Single Models/all_results_single_models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvirb\Desktop\Study\C\Project\New_Project\Final Model\Results\Single Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EA28BE-D4C1-4090-9432-7805D8CC1570}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F34BA9A-B2A3-4B19-A2F0-0AFF6DFEAA55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10786" firstSheet="4" activeTab="4" xr2:uid="{79EDE08F-0BAA-41A3-906E-62B44D85B948}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10786" activeTab="1" xr2:uid="{79EDE08F-0BAA-41A3-906E-62B44D85B948}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="120" r:id="rId9"/>
+    <pivotCache cacheId="2" r:id="rId9"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="36">
   <si>
     <t>Dataset</t>
   </si>
@@ -150,7 +151,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -201,8 +202,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,7 +332,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LOGISTIC</c:v>
+                  <c:v>FastText</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -348,34 +349,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>גיליון4!$A$6:$A$14</c:f>
+              <c:f>גיליון4!$A$6:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>FastText</c:v>
+                    <c:v>LOGISTIC</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>TFIDF</c:v>
+                    <c:v>RF</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Word2Vec</c:v>
+                    <c:v>SVM</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>FastText</c:v>
+                    <c:v>XGBOOST</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>TFIDF</c:v>
+                    <c:v>LOGISTIC</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Word2Vec</c:v>
+                    <c:v>RF</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>XGBOOST</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FakeNewsNet</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>PolitiFact</c:v>
                   </c:pt>
                 </c:lvl>
@@ -384,27 +391,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>גיליון4!$B$6:$B$14</c:f>
+              <c:f>גיליון4!$B$6:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.49731389102072099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31137724550898199</c:v>
+                  <c:v>0.1487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.495224099926524</c:v>
+                  <c:v>0.49280000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.16405667412378799</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.59366314619232896</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.63944856839872699</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58684654300168604</c:v>
+                  <c:v>0.59079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59919999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58306538049303303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,7 +437,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RF</c:v>
+                  <c:v>TFIDF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -441,34 +454,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>גיליון4!$A$6:$A$14</c:f>
+              <c:f>גיליון4!$A$6:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>FastText</c:v>
+                    <c:v>LOGISTIC</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>TFIDF</c:v>
+                    <c:v>RF</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Word2Vec</c:v>
+                    <c:v>SVM</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>FastText</c:v>
+                    <c:v>XGBOOST</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>TFIDF</c:v>
+                    <c:v>LOGISTIC</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Word2Vec</c:v>
+                    <c:v>RF</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>XGBOOST</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FakeNewsNet</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>PolitiFact</c:v>
                   </c:pt>
                 </c:lvl>
@@ -477,34 +496,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>גיליון4!$C$6:$C$14</c:f>
+              <c:f>גיליון4!$C$6:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.1487</c:v>
+                  <c:v>0.31137724550898199</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.17199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15090000000000001</c:v>
+                  <c:v>0.30459999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59079999999999999</c:v>
+                  <c:v>0.32554945054945</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.63944856839872699</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.61660000000000004</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.57020000000000004</c:v>
+                <c:pt idx="6">
+                  <c:v>0.62649999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62386302835741003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EB01-4F17-8192-FF06508401C3}"/>
+              <c16:uniqueId val="{00000000-9675-43B9-94CB-100448AF6D88}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -517,7 +542,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SVM</c:v>
+                  <c:v>Word2Vec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -534,34 +559,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>גיליון4!$A$6:$A$14</c:f>
+              <c:f>גיליון4!$A$6:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>FastText</c:v>
+                    <c:v>LOGISTIC</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>TFIDF</c:v>
+                    <c:v>RF</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Word2Vec</c:v>
+                    <c:v>SVM</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>FastText</c:v>
+                    <c:v>XGBOOST</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>TFIDF</c:v>
+                    <c:v>LOGISTIC</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Word2Vec</c:v>
+                    <c:v>RF</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>XGBOOST</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FakeNewsNet</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>PolitiFact</c:v>
                   </c:pt>
                 </c:lvl>
@@ -570,127 +601,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>גיליון4!$D$6:$D$14</c:f>
+              <c:f>גיליון4!$D$6:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.49280000000000002</c:v>
+                  <c:v>0.495224099926524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30459999999999998</c:v>
+                  <c:v>0.15090000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.48630000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59919999999999995</c:v>
+                  <c:v>0.162773172569706</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62649999999999995</c:v>
+                  <c:v>0.58684654300168604</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.57020000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58567639257294402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-EB01-4F17-8192-FF06508401C3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>גיליון4!$E$4:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>XGBOOST</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>גיליון4!$A$6:$A$14</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>FastText</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>TFIDF</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Word2Vec</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>FastText</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>TFIDF</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Word2Vec</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>FakeNewsNet</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>PolitiFact</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>גיליון4!$E$6:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.16405667412378799</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.32554945054945</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.162773172569706</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.58306538049303303</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.62386302835741003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.58567639257294402</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-EB01-4F17-8192-FF06508401C3}"/>
+              <c16:uniqueId val="{00000001-9675-43B9-94CB-100448AF6D88}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9086,16 +9030,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>715993</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>94892</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>107830</xdr:rowOff>
+      <xdr:rowOff>142336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>323492</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>138023</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504647</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9292,14 +9236,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>353684</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>370937</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>64698</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>30195</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:colOff>47448</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>112144</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9405,16 +9349,16 @@
         <s v="FastText + PCA"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Accuracy" numFmtId="168">
+    <cacheField name="Accuracy" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.14879999999999999" maxValue="0.7591"/>
     </cacheField>
-    <cacheField name="Precision" numFmtId="168">
+    <cacheField name="Precision" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.14860000000000001" maxValue="0.75412720842754699"/>
     </cacheField>
-    <cacheField name="Recall" numFmtId="168">
+    <cacheField name="Recall" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.14879999999999999" maxValue="0.85650000000000004"/>
     </cacheField>
-    <cacheField name="F1-Score" numFmtId="168">
+    <cacheField name="F1-Score" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1487" maxValue="0.77139999999999997"/>
     </cacheField>
   </cacheFields>
@@ -10392,8 +10336,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61B326C5-532E-40F3-90DF-75F929F8203B}" name="PivotTable48" cacheId="120" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A4:F14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61B326C5-532E-40F3-90DF-75F929F8203B}" name="PivotTable48" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="85">
+  <location ref="A4:E16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
@@ -10409,7 +10353,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item x="0"/>
         <item x="1"/>
@@ -10418,7 +10362,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="7">
         <item x="4"/>
         <item h="1" x="5"/>
@@ -10429,16 +10373,16 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="168" showAll="0"/>
-    <pivotField numFmtId="168" showAll="0"/>
-    <pivotField numFmtId="168" showAll="0"/>
-    <pivotField dataField="1" numFmtId="168" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
-    <field x="3"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="11">
     <i>
       <x/>
     </i>
@@ -10446,10 +10390,13 @@
       <x/>
     </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="2"/>
     </i>
     <i r="1">
-      <x v="4"/>
+      <x v="3"/>
     </i>
     <i>
       <x v="1"/>
@@ -10458,30 +10405,30 @@
       <x/>
     </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="2"/>
     </i>
     <i r="1">
-      <x v="4"/>
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="2"/>
+    <field x="3"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="4">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -10565,7 +10512,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1407A70-67C9-4382-A1EF-AB6755B11711}" name="PivotTable59" cacheId="120" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1407A70-67C9-4382-A1EF-AB6755B11711}" name="PivotTable59" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A5:E16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -10602,10 +10549,10 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="168" showAll="0"/>
-    <pivotField dataField="1" numFmtId="168" showAll="0"/>
-    <pivotField dataField="1" numFmtId="168" showAll="0"/>
-    <pivotField dataField="1" numFmtId="168" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -10868,7 +10815,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EB3FBA1-24D0-4228-817F-FE9281964A00}" name="PivotTable60" cacheId="120" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EB3FBA1-24D0-4228-817F-FE9281964A00}" name="PivotTable60" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:F19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -10905,10 +10852,10 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="168" showAll="0"/>
-    <pivotField numFmtId="168" showAll="0"/>
-    <pivotField numFmtId="168" showAll="0"/>
-    <pivotField dataField="1" numFmtId="168" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -11050,7 +10997,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF3357D9-6B6C-412B-A04A-69D808D39922}" name="PivotTable49" cacheId="120" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF3357D9-6B6C-412B-A04A-69D808D39922}" name="PivotTable49" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A4:F12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -11087,10 +11034,10 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="168" showAll="0"/>
-    <pivotField numFmtId="168" showAll="0"/>
-    <pivotField numFmtId="168" showAll="0"/>
-    <pivotField dataField="1" numFmtId="168" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -11208,7 +11155,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75352516-9E3C-4CF5-B0EF-DD4194D38F1B}" name="PivotTable50" cacheId="120" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75352516-9E3C-4CF5-B0EF-DD4194D38F1B}" name="PivotTable50" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -11245,10 +11192,10 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="168" showAll="0"/>
-    <pivotField numFmtId="168" showAll="0"/>
-    <pivotField numFmtId="168" showAll="0"/>
-    <pivotField dataField="1" numFmtId="168" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
@@ -11336,7 +11283,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0089ECC4-AFF3-4235-8521-359A7FE4C59D}" name="PivotTable51" cacheId="120" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0089ECC4-AFF3-4235-8521-359A7FE4C59D}" name="PivotTable51" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:E12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" showAll="0">
@@ -11373,10 +11320,10 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="168" showAll="0"/>
-    <pivotField dataField="1" numFmtId="168" showAll="0"/>
-    <pivotField dataField="1" numFmtId="168" showAll="0"/>
-    <pivotField dataField="1" numFmtId="168" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
@@ -11483,7 +11430,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{438604D5-3D41-4278-9A19-E8DFAC143AED}" name="PivotTable52" cacheId="120" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{438604D5-3D41-4278-9A19-E8DFAC143AED}" name="PivotTable52" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:F23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" showAll="0">
@@ -11520,10 +11467,10 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="168" showAll="0"/>
-    <pivotField numFmtId="168" showAll="0"/>
-    <pivotField numFmtId="168" showAll="0"/>
-    <pivotField dataField="1" numFmtId="168" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="3"/>
@@ -14529,10 +14476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA74E56-8410-4660-B803-E5E556A4AA59}">
-  <dimension ref="A2:I14"/>
+  <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.2"/>
@@ -14575,18 +14522,15 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -14595,178 +14539,185 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>0.43463841215207566</v>
+        <v>0.32571764128612724</v>
       </c>
       <c r="C6" s="2">
-        <v>0.15720000000000001</v>
+        <v>0.278381674014608</v>
       </c>
       <c r="D6" s="2">
-        <v>0.4279</v>
+        <v>0.32379931812405749</v>
       </c>
       <c r="E6" s="2">
-        <v>0.217459765747648</v>
-      </c>
-      <c r="F6" s="2">
         <v>0.30929954447493091</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>0.49731389102072099</v>
       </c>
       <c r="C7" s="2">
-        <v>0.1487</v>
+        <v>0.31137724550898199</v>
       </c>
       <c r="D7" s="2">
-        <v>0.49280000000000002</v>
+        <v>0.495224099926524</v>
       </c>
       <c r="E7" s="2">
-        <v>0.16405667412378799</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.32571764128612724</v>
+        <v>0.43463841215207566</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>0.31137724550898199</v>
+        <v>0.1487</v>
       </c>
       <c r="C8" s="2">
         <v>0.17199999999999999</v>
       </c>
       <c r="D8" s="2">
-        <v>0.30459999999999998</v>
+        <v>0.15090000000000001</v>
       </c>
       <c r="E8" s="2">
-        <v>0.32554945054945</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.278381674014608</v>
+        <v>0.15720000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>0.495224099926524</v>
+        <v>0.49280000000000002</v>
       </c>
       <c r="C9" s="2">
-        <v>0.15090000000000001</v>
+        <v>0.30459999999999998</v>
       </c>
       <c r="D9" s="2">
         <v>0.48630000000000001</v>
       </c>
       <c r="E9" s="2">
+        <v>0.4279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.16405667412378799</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.32554945054945</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.162773172569706</v>
       </c>
-      <c r="F9" s="2">
-        <v>0.32379931812405749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="E10" s="2">
+        <v>0.217459765747648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.606652752530914</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.59253333333333336</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.60823333333333329</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.59753493380779565</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="B11" s="2">
+        <v>0.59168213167134054</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.62660289918903422</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.58543073389365752</v>
+      </c>
+      <c r="E11" s="2">
         <v>0.60123858825134413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.59366314619232896</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.59079999999999999</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.59919999999999995</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.58306538049303303</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.59168213167134054</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2">
+        <v>0.59366314619232896</v>
+      </c>
+      <c r="C12" s="2">
         <v>0.63944856839872699</v>
       </c>
-      <c r="C12" s="2">
-        <v>0.61660000000000004</v>
-      </c>
       <c r="D12" s="2">
-        <v>0.62649999999999995</v>
+        <v>0.58684654300168604</v>
       </c>
       <c r="E12" s="2">
-        <v>0.62386302835741003</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.62660289918903422</v>
+        <v>0.606652752530914</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
-        <v>0.58684654300168604</v>
+        <v>0.59079999999999999</v>
       </c>
       <c r="C13" s="2">
+        <v>0.61660000000000004</v>
+      </c>
+      <c r="D13" s="2">
         <v>0.57020000000000004</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
+        <v>0.59253333333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.59919999999999995</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.62649999999999995</v>
+      </c>
+      <c r="D14" s="2">
         <v>0.59899999999999998</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
+        <v>0.60823333333333329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.58306538049303303</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.62386302835741003</v>
+      </c>
+      <c r="D15" s="2">
         <v>0.58567639257294402</v>
       </c>
-      <c r="F13" s="2">
-        <v>0.58543073389365752</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="E15" s="2">
+        <v>0.59753493380779565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.52064558234149472</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.37486666666666668</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.51806666666666656</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.40749734977772184</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="B16" s="2">
+        <v>0.45869988647873383</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.45249228660182117</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.4546150260088575</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.45526906636313752</v>
       </c>
     </row>
@@ -15392,7 +15343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF18428-D795-4B5C-807D-2C657802C35A}">
   <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
